--- a/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2186113122", "https://openalex.org/W1523310174", "https://openalex.org/W2531913951", "https://openalex.org/W4302381976", "https://openalex.org/W4243634448", "https://openalex.org/W4232219214", "https://openalex.org/W2115543187", "https://openalex.org/W2376557651", "https://openalex.org/W2380323645", "https://openalex.org/W2979752698")</t>
+          <t>c("https://openalex.org/W2186113122", "https://openalex.org/W1523310174", "https://openalex.org/W2531913951", "https://openalex.org/W4302381976", "https://openalex.org/W4243634448", "https://openalex.org/W2115543187", "https://openalex.org/W2376557651", "https://openalex.org/W2380323645", "https://openalex.org/W2979752698", "https://openalex.org/W2391270341")</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5055780915", "https://openalex.org/A5019220974", "https://openalex.org/A5000878326", "https://openalex.org/A5008608447", "https://openalex.org/A5052085802", "https://openalex.org/A5025510544", "https://openalex.org/A5072740048"), au_display_name = c("Don Willis", "Joseph Keawe’aimoku Kaholokula", "Jennifer A. Andersen", "James P. Selig", "Cari A. Bogulski", "Aaron J. Scott", "Pearl A. McElfish"), au_orcid = c("https://orcid.org/0000-0001-9612-489X", "https://orcid.org/0000-0001-5076-6141", 
+          <t>list(au_id = c("https://openalex.org/A5055780915", "https://openalex.org/A5019220974", "https://openalex.org/A5000878326", "https://openalex.org/A5008608447", "https://openalex.org/A5052085802", "https://openalex.org/A5025510544", "https://openalex.org/A5072740048"), au_display_name = c("Don Willis", "Joseph Keawe‘aimoku Kaholokula", "Jennifer A. Andersen", "James P. Selig", "Cari A. Bogulski", "Aaron J. Scott", "Pearl A. McElfish"), au_orcid = c("https://orcid.org/0000-0001-9612-489X", "https://orcid.org/0000-0001-5076-6141", 
 "https://orcid.org/0000-0001-6809-892X", "https://orcid.org/0000-0002-8964-1829", "https://orcid.org/0000-0001-6002-5945", "https://orcid.org/0000-0002-0301-3072", "https://orcid.org/0000-0002-4033-6241"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, USA", "Department of Native Hawaiian Health, John A. Burns School of Medicine, University of Hawai’i at Manoa, Honolulu, USA", 
 "College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, USA", "Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences Northwest, Springdale, USA", "College of Medicine, University of Arkansas for Medical Sciences, Little Rock, USA", "Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale, USA", "College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, USA"
 ), institution_id = c("https://openalex.org/I79620101", "https://openalex.org/I117965899", "https://openalex.org/I79620101", "https://openalex.org/I79620101", "https://openalex.org/I79620101", "https://openalex.org/I79620101", "https://openalex.org/I79620101"), institution_display_name = c("University of Arkansas for Medical Sciences", "University of Hawaiʻi at Mānoa", "University of Arkansas for Medical Sciences", "University of Arkansas for Medical Sciences", "University of Arkansas for Medical Sciences", 
@@ -4175,7 +4175,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4309211534", "https://openalex.org/W3021434214", "https://openalex.org/W3004259476", "https://openalex.org/W2392730113", "https://openalex.org/W2388808113", "https://openalex.org/W2075214100", "https://openalex.org/W2381416288", "https://openalex.org/W2364051953", "https://openalex.org/W2949011490", "https://openalex.org/W2418638721")</t>
+          <t>c("https://openalex.org/W2472795687", "https://openalex.org/W2471460427", "https://openalex.org/W3121375135", "https://openalex.org/W1499386144", "https://openalex.org/W3140545701", "https://openalex.org/W2990234213", "https://openalex.org/W3042772188", "https://openalex.org/W2139259778", "https://openalex.org/W2374019147", "https://openalex.org/W2063858982")</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3121695703", "https://openalex.org/W4220656452", "https://openalex.org/W2743577629", "https://openalex.org/W3032149558", "https://openalex.org/W2936810997", "https://openalex.org/W3089461485", "https://openalex.org/W2790732286", "https://openalex.org/W2955998383", "https://openalex.org/W3010513424", "https://openalex.org/W2621190609")</t>
+          <t>c("https://openalex.org/W3035064981", "https://openalex.org/W2769465923", "https://openalex.org/W2897254871", "https://openalex.org/W2112866395", "https://openalex.org/W2137376225", "https://openalex.org/W4238006225", "https://openalex.org/W4389485761", "https://openalex.org/W2092270052", "https://openalex.org/W139966500", "https://openalex.org/W2936650130")</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2953872710", "https://openalex.org/W2070107750", "https://openalex.org/W2808934676", "https://openalex.org/W1864709827", "https://openalex.org/W1133530171", "https://openalex.org/W1997133872", "https://openalex.org/W2589571971", "https://openalex.org/W2562908937", "https://openalex.org/W2022483081", "https://openalex.org/W2075077394")</t>
+          <t>c("https://openalex.org/W2809146871", "https://openalex.org/W2235788479", "https://openalex.org/W3110357236", "https://openalex.org/W2037039278", "https://openalex.org/W4386281525", "https://openalex.org/W2138294834", "https://openalex.org/W2136984368", "https://openalex.org/W3140349894", "https://openalex.org/W2569965908", "https://openalex.org/W2297296679")</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3048582358", "https://openalex.org/W1984418710", "https://openalex.org/W2471989939", "https://openalex.org/W4254740740", "https://openalex.org/W1481820868", "https://openalex.org/W4302319510", "https://openalex.org/W2600735778", "https://openalex.org/W2091003848", "https://openalex.org/W2462067466", "https://openalex.org/W2068859133")</t>
+          <t>c("https://openalex.org/W1976837208", "https://openalex.org/W2374639958", "https://openalex.org/W4385644928", "https://openalex.org/W3007979253", "https://openalex.org/W2371775975", "https://openalex.org/W2376040085", "https://openalex.org/W2168671040", "https://openalex.org/W3000564033", "https://openalex.org/W2023453068", "https://openalex.org/W78319162")</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
@@ -2024,7 +2024,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Republic of the Marshall Islands (RMI) has a high rate of type 2 diabetes mellitus (T2DM). To address the high rate of T2DM, we tested a culturally adapted family model of diabetes self-management education and support (F-DSMES). We report the results of the 12-month post-intervention data collection and describe the lessons learned from the delivery of the F-DSMES intervention. Recruitment took place in four churches in Majuro and included 10 h of content delivered over 8–10 weeks. Forty-one participants with T2DM were included. The primary study outcome was glycemic control measured by a change in HbA1c. We also conducted participant interviews to document the participant-reported barriers encountered during the F-DSMES intervention. Participants did not show improvements in their biometric markers; however, participants did show improvement on multiple measures of diabetes knowledge and family support. We identified five areas to improve future interventions: 1) issues with recruitment, retention, and attendance; 2) needing help accessing information and additional healthcare provider counseling; 3) struggles with adhering to diet recommendations; 4) difficulty getting exercise, and 5) improving lessons within the intervention. Although the biomarker data did not show improvement, valuable information was gained to improve the development of larger-scale trials. The results provide evidence of the need for these trials and the desire of participants to continue pursuing this effort. Others doing similar work in other low-to-middle income countries will need to take into consideration the potential barriers and facilitators within participants’ social and physical environments.</t>
+          <t>The Republic of the Marshall Islands (RMI) has a high rate of type 2 diabetes mellitus (T2DM). To address the high rate of T2DM, we tested a culturally adapted family model of diabetes self-management education and support (F-DSMES). We report the results of the 12-month post-intervention data collection and describe the lessons learned from the delivery of the F-DSMES intervention.Recruitment took place in four churches in Majuro and included 10 h of content delivered over 8-10 weeks. Forty-one participants with T2DM were included. The primary study outcome was glycemic control measured by a change in HbA1c. We also conducted participant interviews to document the participant-reported barriers encountered during the F-DSMES intervention.Participants did not show improvements in their biometric markers; however, participants did show improvement on multiple measures of diabetes knowledge and family support. We identified five areas to improve future interventions: 1) issues with recruitment, retention, and attendance; 2) needing help accessing information and additional healthcare provider counseling; 3) struggles with adhering to diet recommendations; 4) difficulty getting exercise, and 5) improving lessons within the intervention.Although the biomarker data did not show improvement, valuable information was gained to improve the development of larger-scale trials. The results provide evidence of the need for these trials and the desire of participants to continue pursuing this effort. Others doing similar work in other low-to-middle income countries will need to take into consideration the potential barriers and facilitators within participants' social and physical environments.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4243328821", "https://openalex.org/W2899084033", "https://openalex.org/W2168401804", "https://openalex.org/W2748952813", "https://openalex.org/W2015670292", "https://openalex.org/W2762039367", "https://openalex.org/W4254665112", "https://openalex.org/W2110217064", "https://openalex.org/W2530789867", "https://openalex.org/W3187999478")</t>
+          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W3031052312", "https://openalex.org/W4389568370", "https://openalex.org/W3032375762", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W2586801360", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W1489783725")</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2591870772", "https://openalex.org/W1584357728", "https://openalex.org/W172283860", "https://openalex.org/W3041815157", "https://openalex.org/W2112545136", "https://openalex.org/W2412869497", "https://openalex.org/W4287881317", "https://openalex.org/W4234806579", "https://openalex.org/W2739400470", "https://openalex.org/W4377015147")</t>
+          <t>c("https://openalex.org/W4234806579", "https://openalex.org/W4236568937", "https://openalex.org/W2741284756", "https://openalex.org/W4385657331", "https://openalex.org/W1598739921", "https://openalex.org/W4225873132", "https://openalex.org/W2572826965", "https://openalex.org/W4298139149", "https://openalex.org/W2086025400", "https://openalex.org/W3213559332")</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3021434214", "https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W3004259476", "https://openalex.org/W2002128513", "https://openalex.org/W2392730113", "https://openalex.org/W2092874662", "https://openalex.org/W2388808113", "https://openalex.org/W1828691184", "https://openalex.org/W4309211534")</t>
+          <t>c("https://openalex.org/W2990234213", "https://openalex.org/W2374019147", "https://openalex.org/W2020702580", "https://openalex.org/W2950566166", "https://openalex.org/W1991900499", "https://openalex.org/W2164458581", "https://openalex.org/W2066489051", "https://openalex.org/W2015369371", "https://openalex.org/W2370262613", "https://openalex.org/W2092875419")</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -7659,22 +7659,22 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://aacrjournals.org/cancerrescommun/article-pdf/2/10/1188/3284693/crc-22-0169.pdf</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2587811566", "https://openalex.org/W4283775309", "https://openalex.org/W3217688204", "https://openalex.org/W2891279210", "https://openalex.org/W2291195808", "https://openalex.org/W2587851724", "https://openalex.org/W4252699791", "https://openalex.org/W4213419873", "https://openalex.org/W4295865084", "https://openalex.org/W2590216633")</t>
+          <t>c("https://openalex.org/W3216295232", "https://openalex.org/W3021210585", "https://openalex.org/W4361812323", "https://openalex.org/W4361812564", "https://openalex.org/W4361812589", "https://openalex.org/W4243827691", "https://openalex.org/W2894533252", "https://openalex.org/W2785284705", "https://openalex.org/W4379282845", "https://openalex.org/W4319741957")</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2890251764", "https://openalex.org/W3020860811", "https://openalex.org/W4362547579", "https://openalex.org/W4385898854", "https://openalex.org/W2789953627", "https://openalex.org/W3202989344", "https://openalex.org/W4293999108", "https://openalex.org/W2593174493", "https://openalex.org/W4310756190", "https://openalex.org/W4295865084")</t>
+          <t>c("https://openalex.org/W3216295232", "https://openalex.org/W3021210585", "https://openalex.org/W4361812323", "https://openalex.org/W4361812564", "https://openalex.org/W4361812589", "https://openalex.org/W4243827691", "https://openalex.org/W2894533252", "https://openalex.org/W2785284705", "https://openalex.org/W4379282845", "https://openalex.org/W4319741957")</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
@@ -524,7 +524,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>James J. Harding, Jia Fan, Do‐Youn Oh, Hye Jin Choi, Jin Won Kim, Heung-Moon Chang, Lequn Bao, Hui‐Chuan Sun, Teresa Macarulla, Feng Xie, Jean-Phillippe Metges, Jieer Ying, John Bridgewater, Myung Ah Lee, Mohamedtaki Abdulaziz Tejani, Emerson Y. Chen, Dong Uk Kim, Harpreet Wasan, Michel Ducreux, Yuanyuan Bao, Lisa Boyken, Jiafang Ma, Phillip M. Garfin, Shubham Pant, Ghassan K. Abou‐Alfa, J. Adeva Alfonso, Massimo Aglietta, Ari David Baron, Muhammad Shaalan Beg, Pedro Aguirre, Eric X. Chen, Ying Cheng, Antonio Cubillo Gracián, Laëtitia Dahan, Filippo de Braud, Elisabetta Fenocchio, Olumide Gbolohon, Roopinder Gillmore, Marine Jary, Milind Javle, Yixing Jiang, Jung Hun Kang, Gentry Teng King, Madappa N. Kundranda, Laura Layos, Daneng Li, Tingbo Liang, Sara Lonardi, Omkar Marathe, Sebastián Mondaca, Andrés J. Muñoz Martín, Joon Oh Park, Roberto Pazo-Cid, Paula Ribera Fernandez, Lorenza Rimassa, R. Alonso, Saeed Sadeghi, Aaron J. Scott, Benjamin Tan, David Tougeron, Qiang Yan, Xiao‐Yu Yin, Haitao Zhao</t>
+          <t>James J. Harding, Jia Fan, Do‐Youn Oh, Hye Jin Choi, Jin Won Kim, Heung-Moon Chang, Lequn Bao, Hui–Chuan Sun, Teresa Macarulla, Feng Xie, Jean-Phillippe Metges, Jieer Ying, John Bridgewater, Myung Ah Lee, Mohamedtaki Abdulaziz Tejani, Emerson Y. Chen, Dong Uk Kim, Harpreet Wasan, Michel Ducreux, Yuanyuan Bao, Lisa Boyken, Jiafang Ma, Phillip M. Garfin, Shubham Pant, Ghassan K. Abou‐Alfa, J. Adeva Alfonso, Massimo Aglietta, Ari David Baron, Muhammad Shaalan Beg, Pedro Aguirre, Eric X. Chen, Ying Cheng, Antonio Cubillo Gracián, Laëtitia Dahan, Filippo de Braud, Elisabetta Fenocchio, Olumide Gbolohon, Roopinder Gillmore, Marine Jary, Milind Javle, Yixing Jiang, Jung Hun Kang, Gentry Teng King, Madappa N. Kundranda, Laura Layos, Daneng Li, Tingbo Liang, Sara Lonardi, Omkar Marathe, Sebastián Mondaca, Andrés J. Muñoz Martín, Joon Oh Park, Roberto Pazo-Cid, Paula Ribera Fernandez, Lorenza Rimassa, R. Alonso, Saeed Sadeghi, Aaron J. Scott, Benjamin Tan, David Tougeron, Qiang Yan, Xiao‐Yu Yin, Haitao Zhao</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aaron Scott_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ;; NSABP/NRG Oncology and Fred Hutchinson Cancer Research Center, and SWOG Statistics and Data Management Center, Seattle, WA;; University of Arizona Cancer Center, Tucson, AZ;; Mayo Clinic Arizona, Scottsdale, AZ;; Vanderbilt University. Medical Center, Nashville, TN;; VCU Massey Cancer Center, Richmond, VA;; Mayo Clinic, Rochester, MN;; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL;; University of Texas MD Anderson Cancer Center, Houston, TX;; Memorial Sloan Kettering Cancer Center, New York, NY;; Washington University, Saint Louis, MO;; Saint John's Hospital, Saint Paul, MN;; Dana-Farber Cancer Institute, Boston, MA;; Roswell Park Cancer Institute, Buffalo, NY;; Helen Diller Family Comprehensive Cancer Center, University of California, San Francisco, San Francisco, CA;; Yale Cancer Center, New Haven, CT;; USC Norris Comprehensive Cancer Center, Los Angeles, CA;; University of Washington, Fred Hutchinson Cancer Research Center, Seattle, WA;; Rutgers Cancer Institue of New Jersey, New Brunswick, NJ;; Henry Ford Cancer Institute, Detroit, MI;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386743363</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>SWOG 1815: A phase III randomized trial of gemcitabine, cisplatin, and nab-paclitaxel versus gemcitabine and cisplatin in newly diagnosed, advanced biliary tract cancers.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.lba490</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.lba490</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,44 +534,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>James J. Harding, Jia Fan, Do‐Youn Oh, Hye Jin Choi, Jin Won Kim, Heung-Moon Chang, Lequn Bao, Hui–Chuan Sun, Teresa Macarulla, Feng Xie, Jean-Phillippe Metges, Jieer Ying, John Bridgewater, Myung Ah Lee, Mohamedtaki Abdulaziz Tejani, Emerson Y. Chen, Dong Uk Kim, Harpreet Wasan, Michel Ducreux, Yuanyuan Bao, Lisa Boyken, Jiafang Ma, Phillip M. Garfin, Shubham Pant, Ghassan K. Abou‐Alfa, J. Adeva Alfonso, Massimo Aglietta, Ari David Baron, Muhammad Shaalan Beg, Pedro Aguirre, Eric X. Chen, Ying Cheng, Antonio Cubillo Gracián, Laëtitia Dahan, Filippo de Braud, Elisabetta Fenocchio, Olumide Gbolohon, Roopinder Gillmore, Marine Jary, Milind Javle, Yixing Jiang, Jung Hun Kang, Gentry Teng King, Madappa N. Kundranda, Laura Layos, Daneng Li, Tingbo Liang, Sara Lonardi, Omkar Marathe, Sebastián Mondaca, Andrés J. Muñoz Martín, Joon Oh Park, Roberto Pazo-Cid, Paula Ribera Fernandez, Lorenza Rimassa, R. Alonso, Saeed Sadeghi, Aaron J. Scott, Benjamin Tan, David Tougeron, Qiang Yan, Xiao‐Yu Yin, Haitao Zhao</t>
+          <t>James J. Harding, Jia Fan, Do‐Youn Oh, Hye Jin Choi, Jin Won Kim, Heung-Moon Chang, Lequn Bao, Hui‐Chuan Sun, Teresa Macarulla, Feng Xie, Jean-Phillippe Metges, Jieer Ying, John Bridgewater, Myung Ah Lee, Mohamedtaki Abdulaziz Tejani, Emerson Y. Chen, Dong Uk Kim, Harpreet Wasan, Michel Ducreux, Yuanyuan Bao, Lisa Boyken, Jiafang Ma, Phillip M. Garfin, Shubham Pant, Ghassan K. Abou‐Alfa, J. Adeva Alfonso, Massimo Aglietta, Ari David Baron, Muhammad Shaalan Beg, Pedro Aguirre, Eric X. Chen, Ying Cheng, Antonio Cubillo Gracián, Laëtitia Dahan, Filippo de Braud, Elisabetta Fenocchio, Olumide Gbolohon, Roopinder Gillmore, Marine Jary, Milind Javle, Yixing Jiang, Jung Hun Kang, Gentry Teng King, Madappa N. Kundranda, Laura Layos, Daneng Li, Tingbo Liang, Sara Lonardi, Omkar Marathe, Sebastián Mondaca, Andrés J. Muñoz Martín, Joon Oh Park, Roberto Pazo-Cid, Paula Ribera Fernandez, Lorenza Rimassa, R. Alonso, Saeed Sadeghi, Aaron J. Scott, Benjamin Tan, David Tougeron, Qiang Yan, Xiao‐Yu Yin, Haitao Zhao</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Memorial Sloan Kettering Cancer Center, New York, NY, USA; Zhongshan Hospital of Fudan University, Shanghai, China; Seoul National University Hospital, Cancer Research Institute, Seoul National University College of Medicine, Integrated Major in Innovative Medical Science, Seoul National University Graduate School, Seoul, South Korea; Yonsei Cancer Center, Yonsei University College of Medicine, Seoul, South Korea; Seoul National University Bundang Hospital, Seoul National University College of Medicine, Seongnam, South Korea; Asan Medical Center, University of Ulsan College of Medicine, Seoul, South Korea; Hubei Cancer Hospital, Wuhan, Hubei, China; Zhongshan Hospital of Fudan University, Shanghai, China; Vall d'Hebrón University Hospital, Vall d'Hebrón Institute of Oncology (VHIO), Barcelona, Spain; The Third Affiliated Hospital of the Chinese PLA Naval Military Medical University, Shanghai, China; CHRU de Brest - Hopital Morvan, ARPEGO Network, Brest, France; Zhejiang Cancer Hospital, Hangzhou, Zhejiang, China; University College London Cancer Institute, London, UK; The Catholic University of Korea, Seoul St Mary's Hospital, Seoul, South Korea; AdventHealth, Altamonte Springs, FL, USA; Oregon Health &amp; Science University, Portland, OR, USA; Biomedical Research Institute, Pusan National University Hospital, Busan, South Korea; Hammersmith Hospital, Imperial College London, London, UK; Université Paris-Saclay, Gustave Roussy, Villejuif, France; BeiGene, Beijing, China; Zymeworks, Vancouver, BC, Canada; BeiGene, Beijing, China; Zymeworks, Vancouver, BC, Canada; MD Anderson Cancer Center, Houston, TX, USA; ; ; ; ; ; ; Oregon Health &amp; Science University, Portland, OR, USA; Zhejiang Cancer Hospital, Hangzhou, Zhejiang, China; ; ; ; ; ; ; ; ; ; ; ; ; ; Zymeworks, Vancouver, BC, Canada; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Zhejiang Cancer Hospital, Hangzhou, Zhejiang, China; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379114671</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Zanidatamab for HER2-amplified, unresectable, locally advanced or metastatic biliary tract cancer (HERIZON-BTC-01): a multicentre, single-arm, phase 2b study</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Lancet Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s1470-2045(23)00242-5</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37276871</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s1470-2045(23)00242-5</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Howard Hughes Medical Institute, Department of Neuroscience, Dorris Neuroscience Center, Scripps Research, La Jolla, CA, USA; Howard Hughes Medical Institute, Department of Neuroscience, Dorris Neuroscience Center, Scripps Research, La Jolla, CA, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Howard Hughes Medical Institute, Department of Neuroscience, Dorris Neuroscience Center, Scripps Research, La Jolla, CA, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Howard Hughes Medical Institute, Department of Neuroscience, Dorris Neuroscience Center, Scripps Research, La Jolla, CA, USA; Department of Neuroscience, Dorris Neuroscience Center, Scripps Research, La Jolla, CA, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Department of Molecular Medicine, Scripps Research, La Jolla, CA, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Howard Hughes Medical Institute, Department of Neuroscience, Dorris Neuroscience Center, Scripps Research, La Jolla, CA, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385879061</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Direct observation of the conformational states of PIEZO1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Nature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41586-023-06427-4</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37587339</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41586-023-06427-4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,44 +708,44 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Navaneetha Krishnan Bharathan, W. Giang, C E Hoffman, Jesse Aaron, Satya Khuon, Teng‐Leong Chew, Stephan Preibisch, Eric T. Trautman, Larissa Heinrich, John A. Bogovic, Davis Bennett, David G. Ackerman, Woo-Hyun Park, Alyson Petruncio, Aubrey V. Weigel, Stephan Saalfeld, A. Wayne Vogl, Sara N. Stahley, Andrew P. Kowalczyk</t>
+          <t>Navaneetha Krishnan Bharathan, W. Giang, C E Hoffman, Jesse Aaron, Satya Khuon, Teng‐Leong Chew, Stephan Preibisch, Eric T. Trautman, Larissa Heinrich, John A. Bogovic, Davis Bennett, David Ackerman, Woo-Hyun Park, Alyson Petruncio, Aubrey V. Weigel, Stephan Saalfeld, A. Wayne Vogl, Sara N. Stahley, Andrew P. Kowalczyk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379878595</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Architecture and dynamics of a desmosome–endoplasmic reticulum complex</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Nature Cell Biology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41556-023-01154-4</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37291267</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41556-023-01154-4</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, AR 72703, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR 72703, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, AR 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR 72703, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360954554</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Hesitant adopters: COVID-19 vaccine hesitancy among diverse vaccinated adults in the United States</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Infectious Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.imj.2023.03.001</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38013742</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.imj.2023.03.001</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA; Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA; Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA; Department of Radiology, Southern Arizona VA, Tucson, AZ 85723, USA; Department of Medicine, Division of Hematology and Oncology, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Division of Hematology and Oncology, University of Arizona, Tucson, AZ 85724, USA; Department of Medical Imaging, Division of Interventional Radiology, University of Arizona, 1501 N Campbell Ave, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384298390</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Friend or Foe? Locoregional Therapies and Immunotherapies in the Current Hepatocellular Treatment Landscape</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>International Journal of Molecular Sciences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms241411434</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37511193</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/ijms241411434</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus  Ashburn Virginia; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus  Ashburn Virginia; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus  Ashburn Virginia; Africa Microscopy Initiative University of Cape Town  Cape Town South Africa; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, Virginia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320490681</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>The challenges and opportunities of open‐access microscopy facilities</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-03-05</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of Microscopy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jmi.13176</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36779652</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jmi.13176</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Mass General Cancer Center, Boston, MA; Mayo Clinic, Phoenix, AZ; University of California, Los Angeles, Medical Center, Los Angeles, CA; Duke University Medical Center, Durham, NC; The Angeles Clinic &amp; Research Institute, Los Angeles, CA; University of Arizona Cancer Center, Tucson, AZ; University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, CA; AdventHealth Cancer Institute, Orlando, FL; Leap Therapeutics, Cambridge, MA; Leap Therapeutics, Cambridge, MA; Leap Therapeutics, Inc., Cambridge, MA; Leap Therapeutics, Inc., Cambridge, MA; Leap Therapeutics, Cambridge, MA; Leap Therapeutics, Cambridge, MA; MD Anderson Cancer Center, Houston, TX</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379282491</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>A phase 2 study (DisTinGuish) of DKN-01 in combination with tislelizumab + chemotherapy as first-line (1L) therapy in patients with advanced gastric or GEJ adenocarcinoma (GEA).</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4027</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4027</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, 72762, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, 72762, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale, AR, 72762, USA; College of Medicine, University of Arkansas for Medical Sciences, Little Rock, AR, 72205, USA; College of Medicine, University of Arkansas for Medical Sciences, Little Rock, AR, 72205, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences Northwest, Springdale, AR, 72762, USA; College of Pharmacy, University of Arkansas for Medical Sciences Northwest, Fayetteville, AR, 72703, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale, AR, 72762, USA; Republic of the Marshall Islands Ministry of Health &amp; Human Services, Majuro, MH, 96960, USA; Republic of the Marshall Islands Ministry of Health &amp; Human Services, Majuro, MH, 96960, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, 72762, USA; Republic of the Marshall Islands Ministry of Health &amp; Human Services, Majuro, MH, 96960, USA; Republic of the Marshall Islands Ministry of Health &amp; Human Services, Majuro, MH, 96960, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Fayetteville, AR, 72703, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, AR, 72762, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319790014</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Lessons learned from the pilot family model of diabetes self-management intervention in the Republic of the Marshall Islands</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Contemporary Clinical Trials Communications</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.conctc.2023.101086</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36817737</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.conctc.2023.101086</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eric M. Mulhall, Rachel Lee, Adrienne E. Dubin, Jesse Aaron, Michael Reiche, Anant Gharpure, Kara L. Marshall, Kathryn S. R. Spencer, Scott C. Henderson, Teng‐Leong Chew, Ardem Patapoutian</t>
+          <t>Maarten W. Paul, Jesse Aaron, Eric Wait, Romano M van Genderen, Ihor Smal, Teng‐Leong Chew, Roland Kanaar, Claire Wyman</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319939153</t>
+          <t>Department of Molecular Genetics, Oncode Institute, Erasmus MC Cancer Institute, Erasmus University Medical Center, Rotterdam, Netherlands; Advanced Imaging Center, HHMI Janelia, Ashburn VA, United States; Advanced Imaging Center, HHMI Janelia, Ashburn VA, United States; Elephas Biosciences, Madison WI, United States; Department of Molecular Genetics, Oncode Institute, Erasmus MC Cancer Institute, Erasmus University Medical Center, Rotterdam, Netherlands; Department of Molecular Genetics, Oncode Institute, Erasmus MC Cancer Institute, Erasmus University Medical Center, Rotterdam, Netherlands; Theme Biomedical Sciences, Erasmus University Medical Center, Rotterdam, Netherlands; Advanced Imaging Center, HHMI Janelia, Ashburn VA, United States; Department of Molecular Genetics, Oncode Institute, Erasmus MC Cancer Institute, Erasmus University Medical Center, Rotterdam, Netherlands; Department of Molecular Genetics, Oncode Institute, Erasmus MC Cancer Institute, Erasmus University Medical Center, Rotterdam, Netherlands; Department of Radiation Oncology, Erasmus MC Cancer Institute, Erasmus University Medical Center, Rotterdam, Netherlands</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Direct observation of Piezo1 conformational states</t>
+          <t>https://openalex.org/W4321457529</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>Distinct mobility patterns of BRCA2 molecules at DNA damage sites</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Biophysical Journal</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bpj.2022.11.685</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1101/2023.02.20.527475</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36785079</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bpj.2022.11.685</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.02.20.527475</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Maarten W. Paul, Jesse Aaron, Eric Wait, Romano M van Genderen, Ihor Smal, Teng‐Leong Chew, Roland Kanaar, Claire Wyman</t>
+          <t>Ália dos Santos, Daniel E. Rollins, Yukti Hari-Gupta, Hannah Reed, Mingxue Du, Sabrina Yong Zi Ru, Kseniia Pidlisna, Ane Stranger, Faeeza Lorgat, Danielle Lambert, Ian R. Brown, Kevin Howland, Jesse Aaron, Lin Wang, Peter J. I. Ellis, Teng‐Leong Chew, Marisa L. Martin-Fernandez, Alice L. B. Pyne, Christopher P. Toseland</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321457529</t>
+          <t>Department of Oncology and Metabolism, University of Sheffield, Sheffield, S10 2RX, UK; Department of Materials Science and Engineering, University of Sheffield, Sheffield, S1 3JD, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; Department of Materials Science and Engineering, University of Sheffield, Sheffield, S1 3JD, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, S10 2RX, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, S10 2RX, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, VA, 20147, USA; Central Laser Facility, Research Complex at Harwell, Science and Technology Facilities Council, Rutherford Appleton Laboratory, Harwell, Didcot, Oxford, OX11 0QX, UK; School of Biosciences, University of Kent, Canterbury, CT2 7NJ, UK; Advanced Imaging Center, HHMI Janelia Research Campus, Ashburn, VA, 20147, USA; Central Laser Facility, Research Complex at Harwell, Science and Technology Facilities Council, Rutherford Appleton Laboratory, Harwell, Didcot, Oxford, OX11 0QX, UK; Department of Materials Science and Engineering, University of Sheffield, Sheffield, S1 3JD, UK; Department of Oncology and Metabolism, University of Sheffield, Sheffield, S10 2RX, UK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Distinct mobility patterns of BRCA2 molecules at DNA damage sites</t>
+          <t>https://openalex.org/W4377047387</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>Autophagy receptor NDP52 alters DNA conformation to modulate RNA polymerase II transcription</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Nature Communications</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.20.527475</t>
+          <t>Nature Portfolio</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.1038/s41467-023-38572-9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.02.20.527475</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37202403</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41467-023-38572-9</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,244 +1404,259 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ália dos Santos, Daniel E. Rollins, Yukti Hari-Gupta, Hannah Reed, Mingxue Du, Sabrina Yong Zi Ru, Kseniia Pidlisna, Ane Stranger, Faeeza Lorgat, Danielle Lambert, Ian R. Brown, Kevin Howland, Jesse Aaron, Lin Wang, Peter J. I. Ellis, Teng‐Leong Chew, Marisa L. Martin-Fernandez, Alice L. B. Pyne, Christopher P. Toseland</t>
+          <t>Sophia Gessner, Zubair Martin, Michael Reiche, Joana A Santos, Ryan Dinkele, Atondaho Ramudzuli, Neeraj Dhar, Timothy J. de Wet, Saber Anoosheh, Dirk Lang, Jesse Aaron, Teng‐Leong Chew, Jennifer Herrmann, Rolf Müller, John D. McKinney, Roger Woodgate, Valerie Mizrahi, Česlovas Venclovas, Meindert H. Lamers, Digby F. Warner</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377047387</t>
+          <t>Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; Laboratory of Microbiology and Microsystems, School of Life Sciences, Swiss Federal Institute of Technology in Lausanne (EPFL); SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Advanced Imaging Center, Howard Hughes Medical Institute; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Department of Cell and Chemical Biology, Leiden University Medical Center; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Laboratory of Microbiology and Microsystems, School of Life Sciences, Swiss Federal Institute of Technology in Lausanne (EPFL); Department of Integrative Biomedical Sciences, University of Cape Town; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Confocal and Light Microscope Imaging Facility, Department of Human Biology, University of Cape Town; Advanced Imaging Center, Howard Hughes Medical Institute; Advanced Imaging Center, Howard Hughes Medical Institute; German Centre for Infection Research (DZIF), Partner Site Hannover-Braunschweig; Helmholtz Centre for Infection Research, Helmholtz Institute for Pharmaceutical Research Saarland; German Centre for Infection Research (DZIF), Partner Site Hannover-Braunschweig; Helmholtz Centre for Infection Research, Helmholtz Institute for Pharmaceutical Research Saarland; Laboratory of Microbiology and Microsystems, School of Life Sciences, Swiss Federal Institute of Technology in Lausanne (EPFL); Laboratory of Genomic Integrity, Eunice Kennedy Shriver National Institute of Child Health and Human Development; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Wellcome Centre for Infectious Diseases Research in Africa, University of Cape Town; Institute of Biotechnology, Vilnius University; Department of Cell and Chemical Biology, Leiden University Medical Center; Institute of Infectious Disease and Molecular Medicine, University of Cape Town; SAMRC/NHLS/UCT Molecular Mycobacteriology Research Unit, DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, University of Cape Town; Wellcome Centre for Infectious Diseases Research in Africa, University of Cape Town</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Autophagy receptor NDP52 alters DNA conformation to modulate RNA polymerase II transcription</t>
+          <t>https://openalex.org/W4385770404</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-05-18</t>
+          <t>Author response: Investigating the composition and recruitment of the mycobacterial ImuA′–ImuB–DnaE2 mutasome</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nature Communications</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nature Portfolio</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-023-38572-9</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.7554/elife.75628.sa2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37202403</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41467-023-38572-9</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.7554/elife.75628.sa2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>peer-review</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sophia Gessner, Zubair Martin, Michael Reiche, Joana A Santos, Ryan Dinkele, Atondaho Ramudzuli, Neeraj Dhar, Timothy J. de Wet, Saber Anoosheh, Dirk Lang, Jesse Aaron, Teng‐Leong Chew, Jennifer Herrmann, Rolf Müller, John D. McKinney, Roger Woodgate, Valerie Mizrahi, Česlovas Venclovas, Meindert H. Lamers, Digby F. Warner</t>
+          <t>Harikrushnan Balasubramanian, Chad M. Hobson, Teng‐Leong Chew, Jesse Aaron</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385770404</t>
+          <t>Advanced Imaging Center; Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, 20147, USA; Advanced Imaging Center; Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, 20147, USA; Advanced Imaging Center; Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, 20147, USA; Advanced Imaging Center; Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, 20147, USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Author response: Investigating the composition and recruitment of the mycobacterial ImuA′–ImuB–DnaE2 mutasome</t>
+          <t>https://openalex.org/W4388033291</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>Imagining the future of optical microscopy: everything, everywhere, all at once</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Communications biology</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7554/elife.75628.sa2</t>
+          <t>Nature Portfolio</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1038/s42003-023-05468-9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7554/elife.75628.sa2</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37898673</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>peer-review</t>
+          <t>https://doi.org/10.1038/s42003-023-05468-9</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Harikrushnan Balasubramanian, Chad M. Hobson, Teng‐Leong Chew, Jesse Aaron</t>
+          <t>Eric M. Mulhall, Rachel Lee, Adrienne E. Dubin, Jesse Aaron, Michael Reiche, Anant Gharpure, Kara L. Marshall, Kathryn S. R. Spencer, Scott C. Henderson, Teng‐Leong Chew, Ardem Patapoutian</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388033291</t>
+          <t>Department of Neuroscience, Scripps Research, San Diego, CA, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Department of Neuroscience, Scripps Research, San Diego, CA, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Department of Neuroscience, Scripps Research, San Diego, CA, USA; Department of Neuroscience, Scripps Research, San Diego, CA, USA; Department of Neuroscience, Scripps Research, San Diego, CA, USA; Department of Molecular Medicine, Scripps Research, San Diego, CA, USA; Howard Hughes Medical Institute Janelia Research Campus, Ashburn, VA, USA; Department of Neuroscience, Scripps Research, San Diego, CA, USA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Imagining the future of optical microscopy: everything, everywhere, all at once</t>
+          <t>https://openalex.org/W4319939153</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>Direct observation of Piezo1 conformational states</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Communications biology</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nature Portfolio</t>
+          <t>Biophysical Journal</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s42003-023-05468-9</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.bpj.2022.11.685</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>publisher-specific-oa</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37898673</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s42003-023-05468-9</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36785079</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.bpj.2022.11.685</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,42 +1665,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Yasmine Baca, Francesca Battaglin, Sandy Algaze, Priya Jayachandran, Shivani Soni, Zhi‐Ying Wu, Jae Ho Lo, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John Marshall, Sanjay Goel, Joanne Xiu, Heinz‐Josef Lenz</t>
+          <t>Hiroyuki Arai, Nishant Gandhi, Francesca Battaglin, Sandra Algaze, Priya Jayachandran, Shivani Soni, Zhi‐Ying Wu, Jae Ho Lo, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John Marshall, Sanjay Goel, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317862708</t>
+          <t>Norris Comprehensive Cancer Center, Keck School of Medicine, University of Southern California, Los Angeles, CA;; Caris Life Sciences, Phoenix, AZ;; Norris Comprehensive Cancer Center, Keck School of Medicine, University of Southern California, Los Angeles, CA;; University of Southern California, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; University of Cincinnati, Cincinnati, OH;; West Virginia University, Morgantown, WV;; Fox Chase Cancer Center, Philadelphia, PA;; The University of Arizona, Tucson, AZ;; Levine Cancer Institute, Charlotte, NC;; Division of Hematology, Oncology and Transplantation, University of Minnesota, Minneapolis, MN;; Lombardi Comprehensive Cancer Center, Georgetown University, Washington, DC;; Lombardi Cancer Center, Georgetown University, Washington, DC;; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ;; Caris Life Sciences, Phoenix, AZ;; Norris Comprehensive Cancer Center, Keck School of Medicine, University of Southern California, Los Angeles, CA;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The role of gene expression of CDC37 in colorectal cancer (CRC).</t>
+          <t>https://openalex.org/W4317862947</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>The role of gene expression of CD47 in colorectal cancer (CRC).</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.237</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.240</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1635,35 +1710,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.237</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.240</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,42 +1752,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Nishant Gandhi, Francesca Battaglin, Sandra Algaze, Priya Jayachandran, Shivani Soni, Zhi‐Ying Wu, Jae Ho Lo, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John Marshall, Sanjay Goel, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Van K. Morris, Greg Yothers, Scott Kopetz, Samuel A. Jacobs, Peter C. Lucas, Atif Iqbal, Patrick M. Boland, Dustin A. Deming, Aaron J. Scott, Howard John Lim, Theodore S. Hong, Norman Wolmark, Thomas J. George</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317862947</t>
+          <t>NRG Oncology, and University of Texas MD Anderson Cancer Center, Houston, TX;; NRG Oncology, and The University of Pittsburgh Department of Biostatistics, Pittsburgh, PA;; NRG Oncology, and University of Texax MD Anderson Cancer Center, Houston, TX;; NRG Oncology, Pittsburgh, PA;; NRG Oncology, and Department of Pathology; UPMC Hillman Cancer Center, University of Pittsburgh School of Medicine, Pittsburgh, PA;; NRG Oncology, and Baylor College of Medicine, Houston, TX;; NRG Oncology, and Rutgers Cancer Institute of New Jersey, and Alliance, New Brunswick, NJ;; NRG Oncology, and University of Wisconsin, and ECOG-ACRIN, Madison, WI;; NRG Oncology, and University of Arizona Cancer Center, and SWOG, Tucson, AZ;; BC Cancer Agency, University of British Columbia, Vancouver, BC, Canada;; NRG Oncology, and Massachusetts General Hospital Cancer Center, Harvard Medical School, Boston, MA;; NRG Oncology, and The UPMC Hillman Cancer Center, University of Pittsburgh, Pittsburgh, PA;; NRG Oncology and The University of Florida Health Cancer Center, Gainesville, FL;</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The role of gene expression of CD47 in colorectal cancer (CRC).</t>
+          <t>https://openalex.org/W4317863234</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Phase II/III study of circulating tumor DNA as a predictive biomarker in adjuvant chemotherapy in patients with stage II colon cancer: NRG-GI005 (COBRA).</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.240</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps259</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.240</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps259</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,42 +1839,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Van K. Morris, Greg Yothers, Scott Kopetz, Samuel A. Jacobs, Peter C. Lucas, Atif Iqbal, Patrick M. Boland, Dustin A. Deming, Aaron J. Scott, Howard John Lim, Theodore S. Hong, Norman Wolmark, Thomas J. George</t>
+          <t>Robert W. Lentz, Junxiao Hu, Patrick J. Blatchford, Todd M. Pitts, Alexis D. Leal, Sunnie S. Kim, S. Lindsey Davis, Christopher H. Lieu, Aaron J. Scott, Patrick M. Boland, Howard S. Hochster, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317863234</t>
+          <t>University of Colorado Cancer Center, Aurora, CO;; University of Colorado Cancer Center, Aurora, CO;; Independent, Denver, CO;; University of Colorado School of Medicine, Aurora, CO;; University of Colorado Cancer Center, Aurora, CO;; University of Colorado Cancer Center, Aurora, CO;; University of Colorado Cancer Center, Aurora, CO;; University of Colorado Cancer Center, Aurora, CO;; The University of Arizona, Tucson, AZ;; Rutgers Cancer Institue of New Jersey, New Brunswick, NJ;; Rutgers Cancer Institue of New Jersey, New Brunswick, NJ;; University of Colorado Cancer Center, Aurora, CO;</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Phase II/III study of circulating tumor DNA as a predictive biomarker in adjuvant chemotherapy in patients with stage II colon cancer: NRG-GI005 (COBRA).</t>
+          <t>https://openalex.org/W4317892002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Trial in progress: A phase II study (with safety run-in) of evorpacept (ALX148), cetuximab, and pembrolizumab in patients with refractory microsatellite-stable metastatic colorectal cancer (AGICC-ALX148 21CRC01).</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps259</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps257</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1799,35 +1884,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps259</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps257</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,42 +1926,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Robert W. Lentz, Junxiao Hu, Patrick J. Blatchford, Todd M. Pitts, Alexis D. Leal, Sunnie S. Kim, S. Lindsey Davis, Christopher H. Lieu, Aaron J. Scott, Patrick M. Boland, Howard S. Hochster, Wells A. Messersmith</t>
+          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317892002</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Trial in progress: A phase II study (with safety run-in) of evorpacept (ALX148), cetuximab, and pembrolizumab in patients with refractory microsatellite-stable metastatic colorectal cancer (AGICC-ALX148 21CRC01).</t>
+          <t>https://openalex.org/W4362494591</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>Data from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps257</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6537727.v1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1881,35 +1971,40 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps257</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6537727.v1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,80 +2013,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Don Willis, Joseph Keawe‘aimoku Kaholokula, Jennifer A. Andersen, James P. Selig, Cari A. Bogulski, Aaron J. Scott, Pearl A. McElfish</t>
+          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323652735</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Racial Misclassification, Discrimination, Consciousness, and Self-Rated Health Among Native Hawaiian and Pacific Islander Adults in the USA</t>
+          <t>https://openalex.org/W4362494655</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>Supplementary Tables and Figures from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Journal of Racial and Ethnic Health Disparities</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40615-023-01556-y</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1535-7163.22504408</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36892814</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40615-023-01556-y</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22504408</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,27 +2100,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361814710</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supplementary Methods from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4362494863</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Tables and Figures from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481268</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22504408.v1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481268</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22504408.v1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,27 +2187,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361814735</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Supplementary Tables from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4362494962</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481265.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6537727</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481265.v1</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6537727</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,27 +2274,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361814773</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Figure S3 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4362525456</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481277.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6550994</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481277.v1</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.c.6550994</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2246,27 +2361,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361814777</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Figure S2 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4362543404</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure 2 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481280.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22545644.v1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481280.v1</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22545644.v1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2328,27 +2448,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361814801</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Figure S3 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4362543486</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure 1 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481277</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22545647.v1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>ca</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481277</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22545647.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2410,27 +2535,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361814818</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Data from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4362547579</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2440,50 +2565,55 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530649</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6550994.v1</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530649</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.c.6550994.v1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2492,80 +2622,85 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Yelena Y. Janjigian, Weijing Sun, Caio Max Sao Pedro Rocha Lima, Satish Shah, Aaron J. Scott, Dulabh Monga, Madappa N. Kundranda, Amna Falak Sher, Philip J. Gold, Jordan Berlin, Manish R. Patel, Olatunji B. Alese, Erika Hamilton, Michael Cecchini, Brian Andrew Van Tine, Ben George, Rutika Mehta, Zhenzhong Xia, Caroline Germa, Nashat Gabrail</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361814930</t>
+          <t>Memorial Sloan Kettering Cancer Center, New York, NY; University of Kansas Medical Center Department of Internal Medicine, Westwood, KS; NSABP/NRG Oncology and Wake Forest University Baptist Medical Center, Winston-Salem, NC; Gettysburg Cancer Center, Gettysburg, PA; University of Arizona Cancer Center, Tucson, AZ; Allegheny Health Network Cancer Institute, Pittsburgh, PA; Banner MD Anderson Cancer Center, Gilbert, AZ; Stony Brook University Hospital, Stony Brook, NY; Swedish Cancer Institute, Seattle, WA; Vanderbilt University Medical Center, Nashville, TN; Florida Cancer Specialists/Sarah Cannon Research Institute, Sarasota, FL; Winship Cancer Institute of Emory University, Atlanta, GA; Sarah Cannon Research Institute, Tennessee Oncology, Nashville, TN; Yale University School of Medicine, New Haven, CT; Washington University in St. Louis, St. Louis, MO; Medical College of Wisconsin, Milwaukee, WI; H. Lee Moffitt Cancer Center and Research Institute, Tampa, FL; Suzhou Transcenta Therapeutics Co., Ltd., Guangzhou, China; Transcenta Therapeutics, Princeton, NJ; Gabrail Cancer Center, Canton, OH</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Figure S5 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4379281984</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>A multi-cohort phase I/IIa clinical trial to evaluate the safety, tolerability, and pharmacokinetics of TST001 administered as a monotherapy, with nivolumab or standard of care in patients with locally advanced or metastatic solid tumors: TransStar101.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481271</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4176</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481271</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4176</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2574,80 +2709,85 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Van K. Morris, Greg Yothers, Scott Kopetz, Shannon Puhalla, Peter C. Lucas, Atif Iqbal, Patrick M. Boland, Dustin A. Deming, Aaron J. Scott, Howard John Lim, Theodore S. Hong, Norman Wolmark, Thomas J. George</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361815651</t>
+          <t>Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, TX; The University of Pittsburgh, and NRG Oncology SDMC, Pittsburgh, PA; The University of Texas MD Anderson Cancer Center, Houston, TX; UPMC Hillman Cancer Center and NSABP Foundation, Pittsburgh, PA; UMPC Hillman Cancer Center, The University of Pittsburgh School of Medicine, Pittsburgh, PA; Baylor College of Medicine, Houston, TX; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ; University of Wisconsin, Madison, WI; The University of Arizona, Tucson, AZ; BCCA University of British Columbia, Vancouver, BC, Canada; Massachusetts General Hospital Cancer Center, Harvard Medical School, Boston, MA; UPMC Hillman Cancer Center, The University of Pittsburgh School of Medicine, Pittsburgh, PA; University of Florida Health Cancer Center, Gainesville, FL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Figure S2 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4379282537</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Phase II/III study of circulating tumor DNA as a predictive biomarker in adjuvant chemotherapy in patients with stage II colon cancer: NRG-GI005 (COBRA).</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481280</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps3625</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481280</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps3625</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2656,80 +2796,85 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>D. Sakthi Kumar, Toluwalase Talabi, Mahta Mahmoudieh, Daniel Pennington, Kathylynn Saboda, Junaid Arshad, Aaron J. Scott</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361816005</t>
+          <t>University of Arizona Cancer Center, Tucson, AZ; University of Arizona College of Medicine - Tucson, Tucson, AZ; The University of Arizona Cancer Center, Tucson, AZ; University of Arizona Department of Neuroscience, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; The University of Arizona Cancer Center, Tuscon, AZ; University of Arizona Cancer Center, Tucson, AZ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Supplementary Tables from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4379283850</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Outcomes for immuno-chemotherapy based treatment in patients with poorly differentiated extrapulmonary neuroendocrine carcinoma.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481265</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14619</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481265</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14619</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2738,80 +2883,85 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Jennifer A. Andersen, Aaron J. Scott, Brett Rowland, Don Willis, Pearl A. McElfish</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361817432</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Supplementary Methods from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4382934560</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Associations between COVID-19 Death Exposure and COVID-19 Vaccine Hesitancy and Vaccine Uptake</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Southern Medical Journal</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481268.v1</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.14423/smj.0000000000001576</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481268.v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37400094</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14423/smj.0000000000001576</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2820,80 +2970,85 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Rosalie Sinclair, D. Cox, John M. Heddleston, Jesse Aaron, Eric Wait, Thomas Wilkop, Georgia Drakakaki</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361819062</t>
+          <t>University of California , Davis , United States; UC Davis , Davis , United States; Janelia Research Campus , Ashburn , United States; Janelia Research Campus , Ashburn , United States; Janelia Research Campus , Ashburn , United States; University of California , Davis , United States; UC Davis , Davis , United States</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Data from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4385055243</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Dissecting Cell Plate Development During Plant Cytokinesis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Microscopy and Microanalysis</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530649.v1</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/micmic/ozad067.428</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6530649.v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37613718</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/micmic/ozad067.428</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2902,80 +3057,85 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Ramya Ramachandran, Marisa E. Cannon, Madappa N. Kundranda, Aaron J. Scott</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361819556</t>
+          <t>Hospital Corporation of America-Medical City Arlington, Arlington, TX;; University of Arizona College of Medicine-Tuscon, Tucson, AZ;; Banner Health, Gilbert, AZ;; University of Arizona Cancer Center, Tucson, AZ.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Figure S4 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4387733387</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>S2470 ctDNA Response in a POLE-mutation Associated Colon Cancer Patient Treated With Immune Checkpoint Blockade</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481274</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.14309/01.ajg.0000959520.05201.03</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481274</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000959520.05201.03</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2984,27 +3144,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Justin F. Gainor, Manish R. Patel, Jeffrey S. Weber, Martin Gutierrez, Julie E. Bauman, Jeffrey Clarke, Ricklie Julian, Aaron J. Scott, J.L. Geiger, Kedar Kirtane, Céline Robert-Tissot, Brandon Coder, Moomal Tasneem, Jing Sun, Wei Zheng, Lauren Gerbereux, Andressa S. Laino, Jack Pollard, Peijie Hou, Vasudha Sehgal, Hikmat N. Daghestani, Igor Feldman, Lakshmi Srinivasan, Joshua P. Frederick, Michelle Brown, Praveen Aanur, Robert Meehan, Howard A. Burris</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361827562</t>
+          <t>Massachusetts General Hospital, Boston, MA, USA; Florida Cancer Specialists, Sarasota, FL, USA; Sarah Cannon Research Institute, Nashville, TN, USA; Perlmutter Cancer Center at NYU Langone Health, New York, NY, USA; Hackensack University Medical Center, Hackensack, NJ, USA; George Washington University, Washington, DC, USA; Duke University Medical Center, Durham, NC, USA; University of Arizona Cancer Center, Tucson, AZ, USA; University of Arizona Cancer Center, Tucson, AZ, USA; The Cleveland Clinic Foundation, Cleveland, OH, USA; H. Lee Moffitt Cancer Center and Research Institute, Tampa, FL, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Sarah Cannon Research Institute, Nashville, TN, USA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Figure S4 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4388076330</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>1530 T-cell responses to individualized neoantigen therapy (INT) mRNA-4157 (V940) as monotherapy or in combination with pembrolizumab</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3014,50 +3174,55 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481274.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1136/jitc-2023-sitc2023.1530</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481274.v1</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1136/jitc-2023-sitc2023.1530</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3066,80 +3231,85 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Shamar Young, Jack Hannallah, Daniel W. Goldberg, Mohammad Khreiss, Rachna T. Shroff, Junaid Arshad, Aaron J. Scott, Gregory Woodhead</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361827677</t>
+          <t>Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Surgical Oncology, Department of Surgery, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Figure S1 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4391182888</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Liver-Directed Therapy Combined with Systemic Therapy: Current Status and Future Directions</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Seminars in Interventional Radiology</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481283.v1</t>
+          <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1055/s-0043-1777711</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481283.v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38274222</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1055/s-0043-1777711</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3148,80 +3318,85 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Hiroyuki Arai, Yasmine Baca, Francesca Battaglin, Sandy Algaze, Priya Jayachandran, Shivani Soni, Zhi‐Ying Wu, Jae Ho Lo, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John Marshall, Sanjay Goel, Joanne Xiu, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361827802</t>
+          <t>Norris Comprehensive Cancer Center, Keck School of Medicine, University of Southern California, Los Angeles, CA;; Caris Life Sciences, Phoenix, AZ;; Norris Comprehensive Cancer Center, Keck School of Medicine, University of Southern California, Los Angeles, CA;; Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Division of Medical Oncology, USC Norris Comprehensive Cancer Center, Keck School of Medicine, Los Angeles, CA;; Norris Comprehensive Cancer Center, University of Southern Carilfornia, Los Angeles, CA;; University of Cincinnati, Cincinnati, OH;; West Virginia University, Morgantown, WV;; Fox Chase Cancer Center, Philadelphia, PA;; The University of Arizona, Tucson, AZ;; Levine Cancer Institute, Charlotte, NC;; Division of Hematology, Oncology and Transplantation, University of Minnesota, Minneapolis, MN;; Lombardi Comprehensive Cancer Center, Georgetown University, Washington, DC;; Lombardi Cancer Center, Georgetown University, Washington, DC;; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ;; Caris Life Sciences, Phoenix, AZ;; Norris Comprehensive Cancer Center, Keck School of Medicine, University of Southern California, Los Angeles, CA;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Figure S5 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4317862708</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>The role of gene expression of CDC37 in colorectal cancer (CRC).</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481271.v1</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.237</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22481271.v1</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.237</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3230,80 +3405,85 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
+          <t>Don Willis, Joseph Keawe’aimoku Kaholokula, Jennifer A. Andersen, James P. Selig, Cari A. Bogulski, Aaron J. Scott, Pearl A. McElfish</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361827867</t>
+          <t>College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, USA; Department of Native Hawaiian Health, John A. Burns School of Medicine, University of Hawai’i at Manoa, Honolulu, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, USA; Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences Northwest, Springdale, USA; College of Medicine, University of Arkansas for Medical Sciences, Little Rock, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale, USA; College of Medicine, University of Arkansas for Medical Sciences Northwest, Springdale, USA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Figure S1 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
+          <t>https://openalex.org/W4323652735</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Racial Misclassification, Discrimination, Consciousness, and Self-Rated Health Among Native Hawaiian and Pacific Islander Adults in the USA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Racial and Ethnic Health Disparities</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481283</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1007/s40615-023-01556-y</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22481283</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36892814</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s40615-023-01556-y</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3312,27 +3492,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494591</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Data from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
+          <t>https://openalex.org/W4361814710</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Supplementary Methods from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3342,50 +3522,55 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6537727.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481268</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6537727.v1</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481268</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3394,27 +3579,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494655</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Supplementary Tables and Figures from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
+          <t>https://openalex.org/W4361814735</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Supplementary Tables from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3424,50 +3609,55 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22504408</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481265.v1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22504408</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481265.v1</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3476,27 +3666,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494863</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Supplementary Tables and Figures from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
+          <t>https://openalex.org/W4361814773</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Figure S3 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3506,50 +3696,55 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22504408.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481277.v1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.22504408.v1</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481277.v1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3558,27 +3753,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, John J. Arcaroli, Stacey M. Bagby, Rachel Yahn, Kendra M. Huber, Natalie J. Serkova, Anna Nguyen, Jihye Kim, Andrew Thorburn, Jon D. Vogel, Kevin S. Quackenbush, Anna Capasso, Anna Schreiber, Patrick J. Blatchford, Peter J. Klauck, Todd M. Pitts, S. Gail Eckhardt, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362494962</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Data from Cabozantinib Exhibits Potent Antitumor Activity in Colorectal Cancer Patient-Derived Tumor Xenograft Models via Autophagy and Signaling Mechanisms</t>
+          <t>https://openalex.org/W4361814777</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Figure S2 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3588,50 +3783,55 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6537727</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481280.v1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6537727</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481280.v1</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3640,27 +3840,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362525456</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Data from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
+          <t>https://openalex.org/W4361814801</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Figure S3 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3670,50 +3870,55 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6550994</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481277</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6550994</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481277</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3722,27 +3927,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362532952</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
+          <t>https://openalex.org/W4361814818</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Data from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3752,50 +3957,55 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22545647</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6530649</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ca</t>
-        </is>
-      </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.22545647</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6530649</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3804,27 +4014,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362533029</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Supplementary Figure 2 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
+          <t>https://openalex.org/W4361814930</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Figure S5 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3834,50 +4044,55 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22545644</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481271</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.22545644</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481271</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3886,27 +4101,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362543404</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Supplementary Figure 2 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
+          <t>https://openalex.org/W4361815651</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Figure S2 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3916,50 +4131,55 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22545644.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481280</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.22545644.v1</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481280</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3968,27 +4188,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362543486</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
+          <t>https://openalex.org/W4361816005</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplementary Tables from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3998,50 +4218,55 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22545647.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22481265</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ca</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.22545647.v1</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481265</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4050,27 +4275,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362547579</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Data from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
+          <t>https://openalex.org/W4361817432</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplementary Methods from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4080,50 +4305,55 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6550994.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481268.v1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6550994.v1</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481268.v1</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4132,42 +4362,42 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Yelena Y. Janjigian, Weijing Sun, Caio Max Sao Pedro Rocha Lima, Satish Shah, Aaron J. Scott, Dulabh Monga, Madappa N. Kundranda, Amna Falak Sher, Philip J. Gold, Jordan Berlin, Manish R. Patel, Olatunji B. Alese, Erika Hamilton, Michael Cecchini, Brian Andrew Van Tine, Ben George, Rutika Mehta, Zhenzhong Xia, Caroline Germa, Nashat Gabrail</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379281984</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A multi-cohort phase I/IIa clinical trial to evaluate the safety, tolerability, and pharmacokinetics of TST001 administered as a monotherapy, with nivolumab or standard of care in patients with locally advanced or metastatic solid tumors: TransStar101.</t>
+          <t>https://openalex.org/W4361819062</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Data from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4176</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6530649.v1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4177,35 +4407,40 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4176</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6530649.v1</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4214,80 +4449,85 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Van K. Morris, Greg Yothers, Scott Kopetz, Shannon Puhalla, Peter C. Lucas, Atif Iqbal, Patrick M. Boland, Dustin A. Deming, Aaron J. Scott, Howard John Lim, Theodore S. Hong, Norman Wolmark, Thomas J. George</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379282537</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Phase II/III study of circulating tumor DNA as a predictive biomarker in adjuvant chemotherapy in patients with stage II colon cancer: NRG-GI005 (COBRA).</t>
+          <t>https://openalex.org/W4361819556</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Figure S4 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps3625</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481274</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps3625</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481274</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4296,80 +4536,85 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D. Sakthi Kumar, Toluwalase Talabi, Mahta Mahmoudieh, Daniel Pennington, Kathylynn Saboda, Junaid Arshad, Aaron J. Scott</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379283850</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Outcomes for immuno-chemotherapy based treatment in patients with poorly differentiated extrapulmonary neuroendocrine carcinoma.</t>
+          <t>https://openalex.org/W4361827562</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Figure S4 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14619</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481274.v1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e14619</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481274.v1</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4378,80 +4623,85 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jennifer A. Andersen, Aaron J. Scott, Brett Rowland, Don Willis, Pearl A. McElfish</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. W. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382934560</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Associations between COVID-19 Death Exposure and COVID-19 Vaccine Hesitancy and Vaccine Uptake</t>
+          <t>https://openalex.org/W4361827677</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>Figure S1 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Southern Medical Journal</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14423/smj.0000000000001576</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481283.v1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37400094</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14423/smj.0000000000001576</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481283.v1</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4460,80 +4710,85 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rosalie Sinclair, D. Cox, John M. Heddleston, Jesse Aaron, Eric Wait, Thomas Wilkop, Georgia Drakakaki</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385055243</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dissecting Cell Plate Development During Plant Cytokinesis</t>
+          <t>https://openalex.org/W4361827802</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>Figure S5 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Microscopy and Microanalysis</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/micmic/ozad067.428</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481271.v1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37613718</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/micmic/ozad067.428</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481271.v1</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4542,80 +4797,85 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Jennifer L. Vincenzo, Jamie Caulley, Aaron J. Scott, Brian Wilson, Mariana Wingood, Geoffrey M. Curran</t>
+          <t>Hiroyuki Arai, Andrew Elliott, Joanne Xiu, Jingyuan Wang, Francesca Battaglin, Natsuko Kawanishi, Shivani Soni, Wu Zhang, Joshua Millstein, Davendra Sohal, Richard M. Goldberg, Michael J. Hall, Aaron J. Scott, Moh’d Khushman, Jimmy J. Hwang, Emil Lou, Benjamin A. Weinberg, John L. Marshall, A. Craig Lockhart, Phillip Stafford, Jian Zhang, Roberto Moretto, Chiara Cremolini, W. Michael Korn, Heinz‐Josef Lenz</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386209794</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Integrating STEADI for Falls Prevention in Outpatient Rehabilitation Clinics: An Outcomes Evaluation Using the RE-AIM Framework</t>
+          <t>https://openalex.org/W4361827867</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>Figure S1 from The Landscape of Alterations in DNA Damage Response Pathways in Colorectal Cancer</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The Gerontologist</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/geront/gnad117</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22481283</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37638852</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/geront/gnad117</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22481283</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4624,80 +4884,85 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Michael Reiche, Caron Jacobs, Jesse Aaron, Valerie Mizrahi, Digby F. Warner, Teng‐Leong Chew</t>
+          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387409248</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A comprehensive strategy to strengthen bioimaging in Africa through the Africa Microscopy Initiative</t>
+          <t>https://openalex.org/W4362532952</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Supplementary Figure 1 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nature Cell Biology</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nature Portfolio</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41556-023-01221-w</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22545647</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>ca</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37803173</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41556-023-01221-w</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22545647</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4706,80 +4971,85 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rosalie Sinclair, Minmin Wang, Muhammad Zaki Jawaid, Jesse Aaron, Blair J. Rossetti, Eric Wait, Kent L. McDonald, D. Cox, John M. Heddleston, Thomas Wilkop, Georgia Drakakaki</t>
+          <t>Aaron J. Scott, Atrayee Basu Mallick, Efrat Dotan, Steven J. Cohen, Philip J. Gold, Howard S. Hochster, Somasundaram Subramaniam, Afsaneh Barzi, George S. Watts, Patrick J. Blatchford, Wells A. Messersmith</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387453754</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Four-dimensional quantitative analysis of cell plate development using lattice light sheet microscopy identifies robust transition points between growth phases</t>
+          <t>https://openalex.org/W4362533029</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>Supplementary Figure 2 from A Phase II Study Investigating Cabozantinib in Patients with Refractory Metastatic Colorectal Cancer (AGICC 17CRC01)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.10.03.560767</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.1158/2767-9764.22545644</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2023.10.03.560767</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22545644</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4788,80 +5058,85 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ramya Ramachandran, Marisa E. Cannon, Madappa N. Kundranda, Aaron J. Scott</t>
+          <t>Jennifer L. Vincenzo, Jamie Caulley, Aaron J. Scott, Brian Wilson, Mariana Wingood, Geoffrey M. Curran</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387733387</t>
+          <t>Department of Physical Therapy, University of Arkansas for Medical Sciences Northwest, Fayetteville , Arkansas, USA; Rehabilitation Services, Providence St. Joseph Health, Portland , Oregon, USA; Office of Community Health and Research, University of Arkansas for Medical Sciences Northwest, Springdale , Arkansas, USA; Rehabilitation Services, Providence St. Joseph Health, Portland , Oregon, USA; Department of Implementation Science, Wake Forest University School of Medicine , Winston-Salem, North Carolina , USA; Center for Mental Healthcare and Outcomes Research, Central Arkansas Veterans Healthcare System, North Little Rock , Arkansas, USA; College of Pharmacy, University of Arkansas for Medical Sciences, Little Rock , Arkansas, USA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>S2470 ctDNA Response in a POLE-mutation Associated Colon Cancer Patient Treated With Immune Checkpoint Blockade</t>
+          <t>https://openalex.org/W4386209794</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Integrating STEADI for Falls Prevention in Outpatient Rehabilitation Clinics: An Outcomes Evaluation Using the RE-AIM Framework</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>The Gerontologist</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000959520.05201.03</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/geront/gnad117</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000959520.05201.03</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37638852</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/geront/gnad117</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4870,80 +5145,85 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Justin F. Gainor, Manish R. Patel, Jeffrey S. Weber, Martin Gutierrez, Julie E. Bauman, Jeffrey Clarke, Ricklie Julian, Aaron J. Scott, J.L. Geiger, Kedar Kirtane, Céline Robert-Tissot, Brandon Coder, Moomal Tasneem, Jing Sun, Wei Zheng, Lauren Gerbereux, Andressa S. Laino, Jack Pollard, Peijie Hou, Vasudha Sehgal, Hikmat N. Daghestani, Igor Feldman, Lakshmi Srinivasan, Joshua P. Frederick, Michelle Brown, Praveen Aanur, Robert Meehan, Howard A. Burris</t>
+          <t>Michael Reiche, Caron Jacobs, Jesse Aaron, Valerie Mizrahi, Digby F. Warner, Teng‐Leong Chew</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388076330</t>
+          <t>Africa Microscopy Initiative Imaging Centre, University of Cape Town, Cape Town, South Africa; Institute of Infectious Disease and Molecular Medicine, Faculty of Health Sciences, University of Cape Town, Cape Town, South Africa; Africa Microscopy Initiative Imaging Centre, University of Cape Town, Cape Town, South Africa; Institute of Infectious Disease and Molecular Medicine, Faculty of Health Sciences, University of Cape Town, Cape Town, South Africa; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, USA; Institute of Infectious Disease and Molecular Medicine, Faculty of Health Sciences, University of Cape Town, Cape Town, South Africa; Molecular Mycobacteriology Research Unit &amp; DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, Faculty of Health Sciences, University of Cape Town, Cape Town, South Africa; Wellcome Centre for Infectious Disease Research in Africa, University of Cape Town, Cape Town, South Africa; Institute of Infectious Disease and Molecular Medicine, Faculty of Health Sciences, University of Cape Town, Cape Town, South Africa; Molecular Mycobacteriology Research Unit &amp; DSI/NRF Centre of Excellence for Biomedical TB Research, Department of Pathology, Faculty of Health Sciences, University of Cape Town, Cape Town, South Africa; Wellcome Centre for Infectious Disease Research in Africa, University of Cape Town, Cape Town, South Africa; Advanced Imaging Center, Howard Hughes Medical Institute Janelia Research Campus, Ashburn, USA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1530 T-cell responses to individualized neoantigen therapy (INT) mRNA-4157 (V940) as monotherapy or in combination with pembrolizumab</t>
+          <t>https://openalex.org/W4387409248</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>A comprehensive strategy to strengthen bioimaging in Africa through the Africa Microscopy Initiative</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nature Cell Biology</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/jitc-2023-sitc2023.1530</t>
+          <t>Nature Portfolio</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.1038/s41556-023-01221-w</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/jitc-2023-sitc2023.1530</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37803173</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41556-023-01221-w</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4952,80 +5232,85 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Shamar Young, Jack Hannallah, Daniel W. Goldberg, Mohammad Khreiss, Rachna T. Shroff, Junaid Arshad, Aaron J. Scott, Gregory Woodhead</t>
+          <t>Rosalie Sinclair, Minmin Wang, Muhammad Zaki Jawaid, Jesse Aaron, Blair J. Rossetti, Eric Wait, Kent L. McDonald, D. Cox, John M. Heddleston, Thomas Wilkop, Georgia Drakakaki</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391182888</t>
+          <t>Department of Plant Sciences, University of California Davis,; Department of Plant Sciences, University of California Davis,; Department of Plant Sciences, University of California Davis,; Janelia Research Campus, Ashburn; Janelia Research Campus, Ashburn; Elephas Biosciences, Maddison; Electron Microscopy Facility, University of California Berkeley; Department of Plant Sciences, University of California Davis,; Janelia Research Campus, Ashburn; Department of Molecular Cellular Biology, University of California Davis Light Microscope Core; Department of Plant Sciences, University of California Davis,</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Liver-Directed Therapy Combined with Systemic Therapy: Current Status and Future Directions</t>
+          <t>https://openalex.org/W4387453754</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Four-dimensional quantitative analysis of cell plate development using lattice light sheet microscopy identifies robust transition points between growth phases</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Seminars in Interventional Radiology</t>
+          <t>2023-10-06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Thieme Medical Publishers (Germany)</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1777711</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1101/2023.10.03.560767</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38274222</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1777711</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.10.03.560767</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
         <is>
           <t>article</t>
         </is>
